--- a/timesheat.xlsx
+++ b/timesheat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benkabbourreda/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F00F5B6-80BB-8C46-A1FD-421D6779F41A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB41B3EF-B5DA-2143-9994-8C7FDBF1B502}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Splash screen logo</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Mobile &amp; Internet 5 Timesheat</t>
+  </si>
+  <si>
+    <t>Framework 7 + basisinstellingen</t>
+  </si>
+  <si>
+    <t>18/10/18 -</t>
+  </si>
+  <si>
+    <t>SVG Map</t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
   <dimension ref="B1:Q33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,14 +590,24 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43391</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:17" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
     </row>
